--- a/inVivo.xlsx
+++ b/inVivo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>mean_inc</t>
   </si>
@@ -75,6 +75,78 @@
   </si>
   <si>
     <t>PG-TNV</t>
+  </si>
+  <si>
+    <t>mean_inc</t>
+  </si>
+  <si>
+    <t>mean_back</t>
+  </si>
+  <si>
+    <t>std_inc</t>
+  </si>
+  <si>
+    <t>std_back</t>
+  </si>
+  <si>
+    <t>cnr</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>avef</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>tnv</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>bias_inc</t>
+  </si>
+  <si>
+    <t>bias_back</t>
+  </si>
+  <si>
+    <t>mean_inc</t>
+  </si>
+  <si>
+    <t>mean_back</t>
+  </si>
+  <si>
+    <t>std_inc</t>
+  </si>
+  <si>
+    <t>std_back</t>
+  </si>
+  <si>
+    <t>cnr</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>avef</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>tnv</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>bias_inc</t>
+  </si>
+  <si>
+    <t>bias_back</t>
   </si>
   <si>
     <t>mean_inc</t>
@@ -845,31 +917,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -889,7 +961,7 @@
         <v>1.4741558413173879</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0">
         <v>400</v>
@@ -918,7 +990,7 @@
         <v>3.1904520551515709</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0">
         <v>600</v>
@@ -947,7 +1019,7 @@
         <v>2.5065116490834689</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0">
         <v>900</v>
@@ -976,7 +1048,7 @@
         <v>2.4431687851165913</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0">
         <v>400</v>
@@ -1005,7 +1077,7 @@
         <v>4.0881323840539237</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0">
         <v>600</v>
@@ -1034,7 +1106,7 @@
         <v>2.5147345545370356</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0">
         <v>900</v>
@@ -1063,7 +1135,7 @@
         <v>4.1245327977576807</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0">
         <v>400</v>
@@ -1092,7 +1164,7 @@
         <v>5.8230594038235042</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G9" s="0">
         <v>600</v>
@@ -1121,7 +1193,7 @@
         <v>3.1474157670155862</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G10" s="0">
         <v>900</v>
